--- a/StructureDefinition-ext-R5-SubscriptionStatus.xlsx
+++ b/StructureDefinition-ext-R5-SubscriptionStatus.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -590,6 +590,7 @@
   </si>
   <si>
     <t>Element `SubscriptionStatus.notificationEvent.focus` is part of an existing definition because parent element `SubscriptionStatus.notificationEvent` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionStatus.notificationEvent.focus` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `SubscriptionStatus.notificationEvent.focus` is not mapped to FHIR R4, since FHIR R5 `SubscriptionStatus` is not mapped.</t>
   </si>
   <si>
@@ -622,6 +623,7 @@
   </si>
   <si>
     <t>Element `SubscriptionStatus.notificationEvent.additionalContext` is part of an existing definition because parent element `SubscriptionStatus.notificationEvent` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionStatus.notificationEvent.additionalContext` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `SubscriptionStatus.notificationEvent.additionalContext` is not mapped to FHIR R4, since FHIR R5 `SubscriptionStatus` is not mapped.</t>
   </si>
   <si>
@@ -665,7 +667,8 @@
     <t>The reference to the Subscription which generated this notification.</t>
   </si>
   <si>
-    <t>Element `SubscriptionStatus.subscription` is not mapped to FHIR R4, since FHIR R5 `SubscriptionStatus` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionStatus.subscription` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `SubscriptionStatus.subscription` is not mapped to FHIR R4, since FHIR R5 `SubscriptionStatus` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:subscription.id</t>
@@ -699,7 +702,8 @@
     <t>This value SHOULD NOT be present when using `empty` payloads, MAY be present when using `id-only` payloads, and SHOULD be present when using `full-resource` payloads.</t>
   </si>
   <si>
-    <t>Element `SubscriptionStatus.topic` is not mapped to FHIR R4, since FHIR R5 `SubscriptionStatus` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionStatus.topic` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `SubscriptionStatus.topic` is not mapped to FHIR R4, since FHIR R5 `SubscriptionStatus` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:topic.id</t>
@@ -1098,7 +1102,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="156.9296875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="215.98828125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-SubscriptionStatus.xlsx
+++ b/StructureDefinition-ext-R5-SubscriptionStatus.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-SubscriptionStatus.xlsx
+++ b/StructureDefinition-ext-R5-SubscriptionStatus.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -411,7 +411,7 @@
     <t>The status of a subscription at the time this notification was generated.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-subscription-status-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-subscription-status-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -451,7 +451,7 @@
     <t>The type of notification represented by the status message.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-subscription-notification-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-subscription-notification-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:eventsSinceSubscriptionStart</t>
@@ -606,7 +606,7 @@
     <t>Extension.extension:notificationEvent.extension:focus.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 </t>
   </si>
   <si>
@@ -683,7 +683,7 @@
     <t>Extension.extension:subscription.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Subscription|0.0.1-snapshot-3|Subscription|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Subscription|Subscription)
 </t>
   </si>
   <si>
@@ -718,7 +718,7 @@
     <t>Extension.extension:topic.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-SubscriptionTopic|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-SubscriptionTopic|Basic)
 </t>
   </si>
   <si>
@@ -762,7 +762,7 @@
     <t>Codes to represent subscription error details.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-subscription-error-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-subscription-error-for-R4</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1113,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="58.03125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.6328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-SubscriptionStatus.xlsx
+++ b/StructureDefinition-ext-R5-SubscriptionStatus.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -411,7 +411,7 @@
     <t>The status of a subscription at the time this notification was generated.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-subscription-status-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-subscription-status-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -451,7 +451,7 @@
     <t>The type of notification represented by the status message.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-subscription-notification-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-subscription-notification-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:eventsSinceSubscriptionStart</t>
@@ -517,8 +517,7 @@
     <t>In subscriptions where delivery of notifications IS NOT guaranteed (e.g., REST-Hook), this number is a unique and monotonically-increasing event number for a subscription. In channels where delivery of notifications IS guaranteed, this number is a relative index for the events present in the notification (e.g., 1, 2, etc.).</t>
   </si>
   <si>
-    <t>Element `SubscriptionStatus.notificationEvent.eventNumber` is part of an existing definition because parent element `SubscriptionStatus.notificationEvent` requires a cross-version extension.
-Element `SubscriptionStatus.notificationEvent.eventNumber` is not mapped to FHIR R4, since FHIR R5 `SubscriptionStatus` is not mapped.</t>
+    <t>Element `SubscriptionStatus.notificationEvent.eventNumber` is not mapped to FHIR R4, since FHIR R5 `SubscriptionStatus` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:notificationEvent.extension:eventNumber.id</t>
@@ -557,8 +556,7 @@
     <t>The actual time this event occurred on the server.</t>
   </si>
   <si>
-    <t>Element `SubscriptionStatus.notificationEvent.timestamp` is part of an existing definition because parent element `SubscriptionStatus.notificationEvent` requires a cross-version extension.
-Element `SubscriptionStatus.notificationEvent.timestamp` is not mapped to FHIR R4, since FHIR R5 `SubscriptionStatus` is not mapped.</t>
+    <t>Element `SubscriptionStatus.notificationEvent.timestamp` is not mapped to FHIR R4, since FHIR R5 `SubscriptionStatus` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:notificationEvent.extension:timestamp.id</t>
@@ -589,8 +587,7 @@
     <t>The focus of this event. While this will usually be a reference to the focus resource of the event, it MAY contain a reference to a non-FHIR object.</t>
   </si>
   <si>
-    <t>Element `SubscriptionStatus.notificationEvent.focus` is part of an existing definition because parent element `SubscriptionStatus.notificationEvent` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionStatus.notificationEvent.focus` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionStatus.notificationEvent.focus` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `SubscriptionStatus.notificationEvent.focus` is not mapped to FHIR R4, since FHIR R5 `SubscriptionStatus` is not mapped.</t>
   </si>
   <si>
@@ -606,7 +603,7 @@
     <t>Extension.extension:notificationEvent.extension:focus.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -622,8 +619,7 @@
     <t>Additional context information for this event. Generally, this will contain references to additional resources included with the event (e.g., the Patient relevant to an Encounter), however it MAY refer to non-FHIR objects.</t>
   </si>
   <si>
-    <t>Element `SubscriptionStatus.notificationEvent.additionalContext` is part of an existing definition because parent element `SubscriptionStatus.notificationEvent` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionStatus.notificationEvent.additionalContext` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionStatus.notificationEvent.additionalContext` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `SubscriptionStatus.notificationEvent.additionalContext` is not mapped to FHIR R4, since FHIR R5 `SubscriptionStatus` is not mapped.</t>
   </si>
   <si>
@@ -683,7 +679,7 @@
     <t>Extension.extension:subscription.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Subscription|Subscription)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Subscription|0.0.1-snapshot-3|Subscription|4.0.1)
 </t>
   </si>
   <si>
@@ -718,7 +714,7 @@
     <t>Extension.extension:topic.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-SubscriptionTopic|Basic)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-SubscriptionTopic|0.0.1-snapshot-3|Basic|4.0.1)
 </t>
   </si>
   <si>
@@ -762,7 +758,7 @@
     <t>Codes to represent subscription error details.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-subscription-error-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-subscription-error-for-R4|0.0.1-snapshot-3</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1109,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="58.03125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.55078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
